--- a/doit_data_analysis/files/04_output_newdata.xlsx
+++ b/doit_data_analysis/files/04_output_newdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,84 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>4</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Choi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
